--- a/docs/DRC/outputs/drc-inflatedcom_rchanges.xlsx
+++ b/docs/DRC/outputs/drc-inflatedcom_rchanges.xlsx
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.227083467236821</v>
+        <v>1.404967781379554</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.338636509712895</v>
+        <v>1.532692125141332</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>1.149425564803872E-08</v>
       </c>
       <c r="AH4">
-        <v>1.364283263913639</v>
+        <v>1.570638980861709</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>86999976</v>
+        <v>86999974</v>
       </c>
       <c r="X5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -1358,16 +1358,16 @@
         <v>87000000</v>
       </c>
       <c r="AF5">
-        <v>2.758620689655173E-07</v>
+        <v>2.988505747126437E-07</v>
       </c>
       <c r="AG5">
-        <v>3.448276813317742E-08</v>
+        <v>5.747128154314161E-08</v>
       </c>
       <c r="AH5">
-        <v>1.29899310121736</v>
+        <v>1.479715472932484</v>
       </c>
       <c r="AI5">
-        <v>11.40535205077179</v>
+        <v>7.925780387433421</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>86999972</v>
+        <v>86999969</v>
       </c>
       <c r="X6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Y6">
         <v>15</v>
@@ -1471,16 +1471,16 @@
         <v>87000000</v>
       </c>
       <c r="AF6">
-        <v>3.218390804597701E-07</v>
+        <v>3.563218390804598E-07</v>
       </c>
       <c r="AG6">
-        <v>4.597702629145674E-08</v>
+        <v>5.747128484609E-08</v>
       </c>
       <c r="AH6">
-        <v>1.153231772995052</v>
+        <v>1.28352940034673</v>
       </c>
       <c r="AI6">
-        <v>6.180128151318436</v>
+        <v>4.744821780468436</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="Y7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z7">
         <v>9</v>
@@ -1587,10 +1587,10 @@
         <v>3.908045977011494E-07</v>
       </c>
       <c r="AG7">
-        <v>6.896554419343106E-08</v>
+        <v>3.448277209671553E-08</v>
       </c>
       <c r="AH7">
-        <v>0.9685903507463601</v>
+        <v>1.079057074059815</v>
       </c>
       <c r="AI7">
         <v>4.315643777953856</v>
@@ -1610,10 +1610,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1670,16 +1670,16 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>86999965</v>
+        <v>86999960</v>
       </c>
       <c r="X8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>87000000</v>
       </c>
       <c r="AF8">
-        <v>4.022988505747127E-07</v>
+        <v>4.597701149425287E-07</v>
       </c>
       <c r="AG8">
-        <v>1.14942574976898E-08</v>
+        <v>6.896554894967768E-08</v>
       </c>
       <c r="AH8">
-        <v>0.8161306152598728</v>
+        <v>0.9075685091128198</v>
       </c>
       <c r="AI8">
-        <v>5.511458617823767</v>
+        <v>4.827121652228073</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>24</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>86999964</v>
+        <v>86999958</v>
       </c>
       <c r="X9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y9">
         <v>24</v>
       </c>
       <c r="Z9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>87000000</v>
       </c>
       <c r="AF9">
-        <v>4.137931034482759E-07</v>
+        <v>4.827586206896552E-07</v>
       </c>
       <c r="AG9">
-        <v>1.149425762980775E-08</v>
+        <v>2.298851684503112E-08</v>
       </c>
       <c r="AH9">
-        <v>0.7719669711535327</v>
+        <v>0.7821316647062779</v>
       </c>
       <c r="AI9">
-        <v>8.274262468351179</v>
+        <v>6.84742167210741</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1866,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1896,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>86999962</v>
+        <v>86999957</v>
       </c>
       <c r="X10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Y10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>87000000</v>
       </c>
       <c r="AF10">
-        <v>4.367816091954023E-07</v>
+        <v>4.942528735632184E-07</v>
       </c>
       <c r="AG10">
-        <v>2.298851578808735E-08</v>
+        <v>1.149425855463354E-08</v>
       </c>
       <c r="AH10">
-        <v>0.7995105661066944</v>
+        <v>0.750047345497217</v>
       </c>
       <c r="AI10">
-        <v>18.69570391411218</v>
+        <v>8.854731572899354</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>31</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1979,23 +1979,23 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
@@ -2009,16 +2009,16 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>86999957</v>
+        <v>86999955</v>
       </c>
       <c r="X11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y11">
         <v>31</v>
       </c>
       <c r="Z11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2036,16 +2036,16 @@
         <v>87000000</v>
       </c>
       <c r="AF11">
-        <v>4.942528735632184E-07</v>
+        <v>5.172413793103448E-07</v>
       </c>
       <c r="AG11">
-        <v>5.747129277316769E-08</v>
+        <v>2.298851763773901E-08</v>
       </c>
       <c r="AH11">
-        <v>0.7845671352333262</v>
+        <v>0.821090329443852</v>
       </c>
       <c r="AI11">
-        <v>10.1016312405491</v>
+        <v>17.65484757708515</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>86999955</v>
+        <v>86999952</v>
       </c>
       <c r="X12">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Y12">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2149,16 +2149,16 @@
         <v>87000000</v>
       </c>
       <c r="AF12">
-        <v>4.71264367816092E-07</v>
+        <v>5.057471264367816E-07</v>
       </c>
       <c r="AG12">
-        <v>2.298851763773901E-08</v>
+        <v>3.448277764567042E-08</v>
       </c>
       <c r="AH12">
-        <v>0.7125510081151794</v>
+        <v>0.9046208470211861</v>
       </c>
       <c r="AI12">
-        <v>9.318851158516168</v>
+        <v>15.5726792090533</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -2220,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2235,16 +2235,16 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>86999953</v>
+        <v>86999948</v>
       </c>
       <c r="X13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2262,16 +2262,16 @@
         <v>87000000</v>
       </c>
       <c r="AF13">
-        <v>4.597701149425287E-07</v>
+        <v>5.172413793103448E-07</v>
       </c>
       <c r="AG13">
-        <v>2.298851816621096E-08</v>
+        <v>4.597703897478191E-08</v>
       </c>
       <c r="AH13">
-        <v>0.6255047293116811</v>
+        <v>0.8734924229067969</v>
       </c>
       <c r="AI13">
-        <v>9.782778674598756</v>
+        <v>10.9419181181637</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -2288,10 +2288,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>86999951</v>
+        <v>86999946</v>
       </c>
       <c r="X14">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Y14">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>87000000</v>
       </c>
       <c r="AF14">
-        <v>4.367816091954023E-07</v>
+        <v>4.942528735632184E-07</v>
       </c>
       <c r="AG14">
-        <v>2.298851869468294E-08</v>
+        <v>2.2988520015863E-08</v>
       </c>
       <c r="AH14">
-        <v>0.5987778784481395</v>
+        <v>0.7677318556909953</v>
       </c>
       <c r="AI14">
-        <v>15.91975683390393</v>
+        <v>11.40535205077179</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -2401,10 +2401,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2413,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2443,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2461,19 +2461,19 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>86999951</v>
+        <v>86999944</v>
       </c>
       <c r="X15">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>87000000</v>
       </c>
       <c r="AF15">
-        <v>3.67816091954023E-07</v>
+        <v>4.597701149425287E-07</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.298852054433506E-08</v>
       </c>
       <c r="AH15">
-        <v>0.8104352346903712</v>
+        <v>0.8014742773760948</v>
       </c>
       <c r="AI15">
-        <v>24.41868317430144</v>
+        <v>13.48966831680576</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -2514,10 +2514,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>20</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2556,11 +2556,11 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -2574,19 +2574,19 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>86999945</v>
+        <v>86999940</v>
       </c>
       <c r="X16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y16">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2601,16 +2601,16 @@
         <v>87000000</v>
       </c>
       <c r="AF16">
-        <v>4.022988505747127E-07</v>
+        <v>4.597701149425287E-07</v>
       </c>
       <c r="AG16">
-        <v>6.896556084029708E-08</v>
+        <v>4.597704320255853E-08</v>
       </c>
       <c r="AH16">
-        <v>1.134609328238674</v>
+        <v>0.9605594931931826</v>
       </c>
       <c r="AI16">
-        <v>13.22921285197467</v>
+        <v>14.53130176437898</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2687,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>86999943</v>
+        <v>86999936</v>
       </c>
       <c r="X17">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Y17">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2714,16 +2714,16 @@
         <v>87000000</v>
       </c>
       <c r="AF17">
-        <v>4.022988505747127E-07</v>
+        <v>4.71264367816092E-07</v>
       </c>
       <c r="AG17">
-        <v>2.29885208085711E-08</v>
+        <v>4.597704531644713E-08</v>
       </c>
       <c r="AH17">
-        <v>1.267798243278418</v>
+        <v>0.9695655658920146</v>
       </c>
       <c r="AI17">
-        <v>13.75010386745464</v>
+        <v>12.23927799063407</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>25</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2770,23 +2770,23 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
         <v>3</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
       <c r="S18">
         <v>0</v>
       </c>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>86999939</v>
+        <v>86999934</v>
       </c>
       <c r="X18">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Y18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z18">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2827,16 +2827,16 @@
         <v>87000000</v>
       </c>
       <c r="AF18">
-        <v>4.137931034482759E-07</v>
+        <v>4.71264367816092E-07</v>
       </c>
       <c r="AG18">
-        <v>4.597704373103066E-08</v>
+        <v>2.298852318669575E-08</v>
       </c>
       <c r="AH18">
-        <v>1.291157461830016</v>
+        <v>0.8718155061247614</v>
       </c>
       <c r="AI18">
-        <v>9.492844965074799</v>
+        <v>12.65613465688719</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2865,67 +2865,67 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
+        <v>33</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>86999932</v>
+      </c>
+      <c r="X19">
+        <v>39</v>
+      </c>
+      <c r="Y19">
         <v>28</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>86999935</v>
-      </c>
-      <c r="X19">
-        <v>35</v>
-      </c>
-      <c r="Y19">
-        <v>22</v>
-      </c>
       <c r="Z19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2940,16 +2940,16 @@
         <v>87000000</v>
       </c>
       <c r="AF19">
-        <v>4.022988505747127E-07</v>
+        <v>4.482758620689655E-07</v>
       </c>
       <c r="AG19">
-        <v>4.597704584491931E-08</v>
+        <v>2.298852371516796E-08</v>
       </c>
       <c r="AH19">
-        <v>1.257838461561782</v>
+        <v>0.9903547715327069</v>
       </c>
       <c r="AI19">
-        <v>12.44771443854633</v>
+        <v>16.61384887437649</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -2966,10 +2966,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2978,29 +2978,29 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -3008,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>86999933</v>
+        <v>86999927</v>
       </c>
       <c r="X20">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y20">
         <v>23</v>
       </c>
       <c r="Z20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3053,16 +3053,16 @@
         <v>87000000</v>
       </c>
       <c r="AF20">
-        <v>4.022988505747127E-07</v>
+        <v>4.252873563218391E-07</v>
       </c>
       <c r="AG20">
-        <v>2.298852345093185E-08</v>
+        <v>5.747131259087148E-08</v>
       </c>
       <c r="AH20">
-        <v>1.123288921036792</v>
+        <v>1.216038665877504</v>
       </c>
       <c r="AI20">
-        <v>12.86453943658143</v>
+        <v>15.80406675353433</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3112,17 +3112,17 @@
         <v>3</v>
       </c>
       <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>2</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -3139,19 +3139,19 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>86999930</v>
+        <v>86999924</v>
       </c>
       <c r="X21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -3166,16 +3166,16 @@
         <v>87000000</v>
       </c>
       <c r="AF21">
-        <v>4.252873563218391E-07</v>
+        <v>4.367816091954023E-07</v>
       </c>
       <c r="AG21">
-        <v>3.44827863654603E-08</v>
+        <v>3.448278874358557E-08</v>
       </c>
       <c r="AH21">
-        <v>1.067274688435514</v>
+        <v>1.218460055741527</v>
       </c>
       <c r="AI21">
-        <v>15.10987299918432</v>
+        <v>14.7395959934967</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D22">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3204,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>86999927</v>
+        <v>86999921</v>
       </c>
       <c r="X22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3279,16 +3279,16 @@
         <v>87000000</v>
       </c>
       <c r="AF22">
-        <v>4.252873563218391E-07</v>
+        <v>4.367816091954023E-07</v>
       </c>
       <c r="AG22">
-        <v>3.448278755452289E-08</v>
+        <v>3.448278993264833E-08</v>
       </c>
       <c r="AH22">
-        <v>1.142881929276112</v>
+        <v>1.107827589902433</v>
       </c>
       <c r="AI22">
-        <v>17.91507403744286</v>
+        <v>13.86847738414775</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -3305,10 +3305,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3338,19 +3338,19 @@
         <v>3</v>
       </c>
       <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>2</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
       <c r="R23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3365,19 +3365,19 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>86999924</v>
+        <v>86999918</v>
       </c>
       <c r="X23">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>87000000</v>
       </c>
       <c r="AF23">
-        <v>4.252873563218391E-07</v>
+        <v>4.482758620689655E-07</v>
       </c>
       <c r="AG23">
-        <v>3.448278874358557E-08</v>
+        <v>3.448279112171117E-08</v>
       </c>
       <c r="AH23">
-        <v>1.24408651494791</v>
+        <v>1.106506829844874</v>
       </c>
       <c r="AI23">
-        <v>16.4981723914934</v>
+        <v>17.88616041220221</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>4</v>
       </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
       <c r="R24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>86999920</v>
+        <v>86999915</v>
       </c>
       <c r="X24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y24">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>87000000</v>
       </c>
       <c r="AF24">
-        <v>4.597701149425287E-07</v>
+        <v>4.367816091954023E-07</v>
       </c>
       <c r="AG24">
-        <v>4.597705377200347E-08</v>
+        <v>3.44827923107741E-08</v>
       </c>
       <c r="AH24">
-        <v>1.277944338182421</v>
+        <v>1.173616519510514</v>
       </c>
       <c r="AI24">
-        <v>15.5726792090533</v>
+        <v>18.5800594954768</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3543,40 +3543,40 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
       <c r="R25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3591,19 +3591,19 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>86999916</v>
+        <v>86999912</v>
       </c>
       <c r="X25">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y25">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z25">
         <v>12</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>87000000</v>
       </c>
       <c r="AF25">
-        <v>4.71264367816092E-07</v>
+        <v>4.482758620689655E-07</v>
       </c>
       <c r="AG25">
-        <v>4.597705588589304E-08</v>
+        <v>3.44827934998371E-08</v>
       </c>
       <c r="AH25">
-        <v>1.107630366720235</v>
+        <v>1.158567468619418</v>
       </c>
       <c r="AI25">
-        <v>14.8153369073794</v>
+        <v>19.27390441910321</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3656,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26">
         <v>5</v>
@@ -3689,10 +3689,10 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3704,19 +3704,19 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>86999914</v>
+        <v>86999908</v>
       </c>
       <c r="X26">
         <v>41</v>
       </c>
       <c r="Y26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z26">
         <v>14</v>
       </c>
       <c r="AA26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3734,13 +3734,13 @@
         <v>4.71264367816092E-07</v>
       </c>
       <c r="AG26">
-        <v>2.298852847141895E-08</v>
+        <v>4.597706011367276E-08</v>
       </c>
       <c r="AH26">
-        <v>0.8070972964869998</v>
+        <v>0.9261535757185986</v>
       </c>
       <c r="AI26">
-        <v>16.82206127463466</v>
+        <v>18.07120581625868</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3769,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3817,19 +3817,19 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>86999913</v>
+        <v>86999908</v>
       </c>
       <c r="X27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3844,16 +3844,16 @@
         <v>87000000</v>
       </c>
       <c r="AF27">
-        <v>4.482758620689655E-07</v>
+        <v>4.367816091954023E-07</v>
       </c>
       <c r="AG27">
-        <v>1.149426436782759E-08</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.7000855037356148</v>
+        <v>0.5982945285082794</v>
       </c>
       <c r="AI27">
-        <v>24.79023311221147</v>
+        <v>26.27637032690269</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3882,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -3912,11 +3912,11 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
         <v>3</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
         <v>0</v>
       </c>
@@ -3930,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>86999909</v>
+        <v>86999906</v>
       </c>
       <c r="X28">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>87000000</v>
       </c>
       <c r="AF28">
-        <v>4.597701149425287E-07</v>
+        <v>4.137931034482759E-07</v>
       </c>
       <c r="AG28">
-        <v>4.597705958520026E-08</v>
+        <v>2.298853058530891E-08</v>
       </c>
       <c r="AH28">
-        <v>0.7638358929954892</v>
+        <v>0.431735019069307</v>
       </c>
       <c r="AI28">
-        <v>25.97915040756847</v>
+        <v>30</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
       <c r="R29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4043,19 +4043,19 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>86999906</v>
+        <v>86999905</v>
       </c>
       <c r="X29">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Y29">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>87000000</v>
       </c>
       <c r="AF29">
-        <v>4.827586206896552E-07</v>
+        <v>3.908045977011494E-07</v>
       </c>
       <c r="AG29">
-        <v>3.448279587796336E-08</v>
+        <v>1.149426542477259E-08</v>
       </c>
       <c r="AH29">
-        <v>0.6232351918776767</v>
+        <v>0.371100315836407</v>
       </c>
       <c r="AI29">
-        <v>23.37830595115622</v>
+        <v>30</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4108,29 +4108,29 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H30">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <v>3</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
       <c r="O30">
         <v>0</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R30">
         <v>3</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>86999906</v>
+        <v>86999904</v>
       </c>
       <c r="X30">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z30">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AA30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>87000000</v>
       </c>
       <c r="AF30">
-        <v>4.482758620689655E-07</v>
+        <v>3.793103448275862E-07</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.149426555689073E-08</v>
       </c>
       <c r="AH30">
-        <v>0.2799804598476159</v>
+        <v>0.3037250183432888</v>
       </c>
       <c r="AI30">
-        <v>26.87079975451329</v>
+        <v>30</v>
       </c>
       <c r="AJ30">
         <v>0</v>
@@ -4209,10 +4209,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4221,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H31">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4242,17 +4242,17 @@
         <v>0</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>2</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>5</v>
-      </c>
       <c r="R31">
         <v>1</v>
       </c>
@@ -4269,19 +4269,19 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>86999906</v>
+        <v>86999904</v>
       </c>
       <c r="X31">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z31">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4296,13 +4296,13 @@
         <v>87000000</v>
       </c>
       <c r="AF31">
-        <v>3.908045977011494E-07</v>
+        <v>3.563218390804598E-07</v>
       </c>
       <c r="AG31">
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0.0975341761614483</v>
+        <v>0.4388126376983265</v>
       </c>
       <c r="AI31">
         <v>30</v>
@@ -4322,10 +4322,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D32">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4334,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H32">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -4382,19 +4382,19 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>86999906</v>
+        <v>86999902</v>
       </c>
       <c r="X32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y32">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z32">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AA32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4409,13 +4409,16 @@
         <v>87000000</v>
       </c>
       <c r="AF32">
-        <v>3.333333333333334E-07</v>
+        <v>3.103448275862069E-07</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.298853164225403E-08</v>
       </c>
       <c r="AH32">
-        <v>0.233664762801578</v>
+        <v>0.9478013375136072</v>
+      </c>
+      <c r="AI32">
+        <v>30</v>
       </c>
       <c r="AJ32">
         <v>0</v>
@@ -4432,10 +4435,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D33">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4444,40 +4447,40 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>3</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
       <c r="R33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4492,19 +4495,19 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>86999904</v>
+        <v>86999898</v>
       </c>
       <c r="X33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Z33">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4519,13 +4522,13 @@
         <v>87000000</v>
       </c>
       <c r="AF33">
-        <v>3.448275862068966E-07</v>
+        <v>3.218390804597701E-07</v>
       </c>
       <c r="AG33">
-        <v>2.298853111378146E-08</v>
+        <v>4.597706539839851E-08</v>
       </c>
       <c r="AH33">
-        <v>0.5980705218642253</v>
+        <v>1.53301641575186</v>
       </c>
       <c r="AI33">
         <v>30</v>
@@ -4545,10 +4548,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D34">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4557,13 +4560,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H34">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4575,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -4587,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4605,19 +4608,19 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>86999902</v>
+        <v>86999894</v>
       </c>
       <c r="X34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y34">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Z34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4632,16 +4635,16 @@
         <v>87000000</v>
       </c>
       <c r="AF34">
-        <v>3.103448275862069E-07</v>
+        <v>3.218390804597701E-07</v>
       </c>
       <c r="AG34">
-        <v>2.298853164225403E-08</v>
+        <v>4.597706751228915E-08</v>
       </c>
       <c r="AH34">
-        <v>1.038400961498437</v>
+        <v>1.783635871276409</v>
       </c>
       <c r="AI34">
-        <v>30</v>
+        <v>20.98519123542266</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -4658,10 +4661,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D35">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4670,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H35">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>3</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
       <c r="N35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -4700,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4718,19 +4721,19 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>86999898</v>
+        <v>86999891</v>
       </c>
       <c r="X35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4745,16 +4748,16 @@
         <v>87000000</v>
       </c>
       <c r="AF35">
-        <v>2.988505747126437E-07</v>
+        <v>3.333333333333334E-07</v>
       </c>
       <c r="AG35">
-        <v>4.597706539839851E-08</v>
+        <v>3.448280182328045E-08</v>
       </c>
       <c r="AH35">
-        <v>1.274172463791786</v>
+        <v>1.698947461161427</v>
       </c>
       <c r="AI35">
-        <v>25.45900673482946</v>
+        <v>19.54722366262617</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -4771,10 +4774,10 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4783,41 +4786,41 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H36">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
         <v>3</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>2</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
       <c r="S36">
         <v>0</v>
       </c>
@@ -4831,19 +4834,19 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>86999896</v>
+        <v>86999887</v>
       </c>
       <c r="X36">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y36">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4858,16 +4861,16 @@
         <v>87000000</v>
       </c>
       <c r="AF36">
-        <v>2.988505747126437E-07</v>
+        <v>3.67816091954023E-07</v>
       </c>
       <c r="AG36">
-        <v>2.29885332276719E-08</v>
+        <v>4.597707121159824E-08</v>
       </c>
       <c r="AH36">
-        <v>1.169407850236228</v>
+        <v>1.390148820364504</v>
       </c>
       <c r="AI36">
-        <v>25.97915040756847</v>
+        <v>20.30407100002857</v>
       </c>
       <c r="AJ36">
         <v>0</v>
@@ -4884,10 +4887,10 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D37">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4896,41 +4899,41 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
         <v>3</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>3</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
         <v>0</v>
       </c>
@@ -4944,19 +4947,19 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>86999895</v>
+        <v>86999885</v>
       </c>
       <c r="X37">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Y37">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -4971,16 +4974,16 @@
         <v>87000000</v>
       </c>
       <c r="AF37">
-        <v>2.758620689655173E-07</v>
+        <v>3.793103448275862E-07</v>
       </c>
       <c r="AG37">
-        <v>1.149426674595412E-08</v>
+        <v>2.29885361342719E-08</v>
       </c>
       <c r="AH37">
-        <v>1.00121585528081</v>
+        <v>0.8549700654116613</v>
       </c>
       <c r="AI37">
-        <v>30</v>
+        <v>25.51680104670601</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -4997,10 +5000,10 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D38">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5009,41 +5012,41 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H38">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <v>3</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
         <v>3</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
       <c r="S38">
         <v>0</v>
       </c>
@@ -5057,19 +5060,19 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>86999892</v>
+        <v>86999885</v>
       </c>
       <c r="X38">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Y38">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5084,13 +5087,13 @@
         <v>87000000</v>
       </c>
       <c r="AF38">
-        <v>2.988505747126437E-07</v>
+        <v>3.563218390804598E-07</v>
       </c>
       <c r="AG38">
-        <v>3.448280142692591E-08</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>0.8221219617232516</v>
+        <v>0.3180472795255976</v>
       </c>
       <c r="AI38">
         <v>30</v>
@@ -5110,11 +5113,11 @@
         <v>37</v>
       </c>
       <c r="C39">
+        <v>115</v>
+      </c>
+      <c r="D39">
         <v>108</v>
       </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
       <c r="E39">
         <v>0</v>
       </c>
@@ -5122,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H39">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5152,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -5170,19 +5173,19 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>86999892</v>
+        <v>86999885</v>
       </c>
       <c r="X39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5197,13 +5200,13 @@
         <v>87000000</v>
       </c>
       <c r="AF39">
-        <v>2.988505747126437E-07</v>
+        <v>3.103448275862069E-07</v>
       </c>
       <c r="AG39">
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0.4475097376556414</v>
+        <v>0.05121100272684422</v>
       </c>
       <c r="AI39">
         <v>30</v>
@@ -5223,10 +5226,10 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D40">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5235,37 +5238,37 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H40">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>3</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>2</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -5283,19 +5286,19 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>86999892</v>
+        <v>86999885</v>
       </c>
       <c r="X40">
         <v>24</v>
       </c>
       <c r="Y40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5316,10 +5319,7 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0.1399902254726161</v>
-      </c>
-      <c r="AI40">
-        <v>30</v>
+        <v>0.02688577636757947</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -5336,10 +5336,10 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5348,13 +5348,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H41">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5396,19 +5396,19 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>86999892</v>
+        <v>86999885</v>
       </c>
       <c r="X41">
         <v>23</v>
       </c>
       <c r="Y41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0.1892427754108121</v>
+        <v>0.1075431054703179</v>
       </c>
       <c r="AJ41">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5458,13 +5458,13 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H42">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -5488,10 +5488,10 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -5506,19 +5506,19 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>86999891</v>
+        <v>86999884</v>
       </c>
       <c r="X42">
+        <v>23</v>
+      </c>
+      <c r="Y42">
         <v>20</v>
       </c>
-      <c r="Y42">
-        <v>15</v>
-      </c>
       <c r="Z42">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -5533,13 +5533,13 @@
         <v>87000000</v>
       </c>
       <c r="AF42">
-        <v>2.298850574712644E-07</v>
+        <v>2.64367816091954E-07</v>
       </c>
       <c r="AG42">
-        <v>1.149426727442682E-08</v>
+        <v>1.149426819925415E-08</v>
       </c>
       <c r="AH42">
-        <v>0.3897836261224133</v>
+        <v>0.1613146582054768</v>
       </c>
       <c r="AI42">
         <v>30</v>
@@ -5559,10 +5559,10 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D43">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5571,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H43">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -5601,13 +5601,13 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -5619,16 +5619,16 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>86999890</v>
+        <v>86999884</v>
       </c>
       <c r="X43">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y43">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Z43">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AA43">
         <v>1</v>
@@ -5646,13 +5646,13 @@
         <v>87000000</v>
       </c>
       <c r="AF43">
-        <v>1.954022988505747E-07</v>
+        <v>2.413793103448276E-07</v>
       </c>
       <c r="AG43">
-        <v>1.1494267406545E-08</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>0.4010817014232024</v>
+        <v>0.1075431054703179</v>
       </c>
       <c r="AI43">
         <v>30</v>
@@ -5672,10 +5672,10 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D44">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5684,40 +5684,40 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H44">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>3</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
       <c r="R44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>86999890</v>
+        <v>86999884</v>
       </c>
       <c r="X44">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y44">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z44">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5759,13 +5759,13 @@
         <v>87000000</v>
       </c>
       <c r="AF44">
-        <v>1.724137931034483E-07</v>
+        <v>2.068965517241379E-07</v>
       </c>
       <c r="AG44">
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0.2061898883619958</v>
+        <v>0.02688577636757947</v>
       </c>
       <c r="AI44">
         <v>30</v>
@@ -5785,10 +5785,10 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D45">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5797,16 +5797,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H45">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -5845,22 +5845,22 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>86999890</v>
+        <v>86999884</v>
       </c>
       <c r="X45">
+        <v>14</v>
+      </c>
+      <c r="Y45">
         <v>13</v>
       </c>
-      <c r="Y45">
-        <v>11</v>
-      </c>
       <c r="Z45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -5872,16 +5872,13 @@
         <v>87000000</v>
       </c>
       <c r="AF45">
-        <v>1.494252873563218E-07</v>
+        <v>1.60919540229885E-07</v>
       </c>
       <c r="AG45">
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0.09744590469466613</v>
-      </c>
-      <c r="AI45">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
         <v>0</v>
@@ -5898,10 +5895,10 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D46">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5910,40 +5907,40 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H46">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>3</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
       <c r="R46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5958,22 +5955,22 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>86999890</v>
+        <v>86999884</v>
       </c>
       <c r="X46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -5985,13 +5982,13 @@
         <v>87000000</v>
       </c>
       <c r="AF46">
-        <v>1.379310344827586E-07</v>
+        <v>1.264367816091954E-07</v>
       </c>
       <c r="AG46">
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0.2203124779687522</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -6008,10 +6005,10 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D47">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -6020,16 +6017,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H47">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -6038,10 +6035,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -6050,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -6068,22 +6065,22 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>86999889</v>
+        <v>86999884</v>
       </c>
       <c r="X47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z47">
         <v>6</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -6095,16 +6092,13 @@
         <v>87000000</v>
       </c>
       <c r="AF47">
-        <v>1.264367816091954E-07</v>
+        <v>1.149425287356322E-07</v>
       </c>
       <c r="AG47">
-        <v>1.149426753866318E-08</v>
+        <v>0</v>
       </c>
       <c r="AH47">
-        <v>0.3304687169531283</v>
-      </c>
-      <c r="AI47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
         <v>0</v>
@@ -6121,10 +6115,10 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D48">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -6133,16 +6127,16 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H48">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -6154,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -6163,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -6181,22 +6175,22 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>86999889</v>
+        <v>86999884</v>
       </c>
       <c r="X48">
         <v>8</v>
       </c>
       <c r="Y48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z48">
         <v>5</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -6214,10 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>0.2989955024426059</v>
-      </c>
-      <c r="AI48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -6234,28 +6225,28 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D49">
+        <v>116</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>110</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>103</v>
-      </c>
       <c r="H49">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -6276,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -6294,22 +6285,22 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>86999889</v>
+        <v>86999884</v>
       </c>
       <c r="X49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -6321,16 +6312,13 @@
         <v>87000000</v>
       </c>
       <c r="AF49">
-        <v>9.195402298850574E-08</v>
+        <v>6.896551724137931E-08</v>
       </c>
       <c r="AG49">
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>0.3698102173876026</v>
-      </c>
-      <c r="AI49">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
         <v>0</v>
@@ -6347,10 +6335,10 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D50">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -6359,70 +6347,70 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H50">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>86999884</v>
+      </c>
+      <c r="X50">
+        <v>5</v>
+      </c>
+      <c r="Y50">
+        <v>5</v>
+      </c>
+      <c r="Z50">
         <v>3</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>86999888</v>
-      </c>
-      <c r="X50">
-        <v>9</v>
-      </c>
-      <c r="Y50">
-        <v>7</v>
-      </c>
-      <c r="Z50">
-        <v>5</v>
-      </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -6434,16 +6422,13 @@
         <v>87000000</v>
       </c>
       <c r="AF50">
-        <v>1.03448275862069E-07</v>
+        <v>5.747126436781609E-08</v>
       </c>
       <c r="AG50">
-        <v>1.149426767078137E-08</v>
+        <v>0</v>
       </c>
       <c r="AH50">
-        <v>0.4720981468431219</v>
-      </c>
-      <c r="AI50">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
         <v>0</v>
@@ -6460,10 +6445,10 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D51">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6472,70 +6457,70 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H51">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>86999884</v>
+      </c>
+      <c r="X51">
         <v>3</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>86999888</v>
-      </c>
-      <c r="X51">
-        <v>9</v>
-      </c>
       <c r="Y51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -6547,16 +6532,13 @@
         <v>87000000</v>
       </c>
       <c r="AF51">
-        <v>1.03448275862069E-07</v>
+        <v>3.448275862068966E-08</v>
       </c>
       <c r="AG51">
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>0.3147320978954146</v>
-      </c>
-      <c r="AI51">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
         <v>0</v>
@@ -6573,10 +6555,10 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D52">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6585,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -6606,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -6615,40 +6597,40 @@
         <v>0</v>
       </c>
       <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>86999884</v>
+      </c>
+      <c r="X52">
         <v>2</v>
       </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>86999888</v>
-      </c>
-      <c r="X52">
-        <v>7</v>
-      </c>
       <c r="Y52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -6660,16 +6642,13 @@
         <v>87000000</v>
       </c>
       <c r="AF52">
-        <v>8.045977011494252E-08</v>
+        <v>2.298850574712644E-08</v>
       </c>
       <c r="AG52">
         <v>0</v>
       </c>
       <c r="AH52">
-        <v>0.07868302447385364</v>
-      </c>
-      <c r="AI52">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
         <v>0</v>
@@ -6686,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D53">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -6698,16 +6677,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -6728,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -6746,22 +6725,22 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -6773,7 +6752,7 @@
         <v>87000000</v>
       </c>
       <c r="AF53">
-        <v>6.896551724137931E-08</v>
+        <v>2.298850574712644E-08</v>
       </c>
       <c r="AG53">
         <v>0</v>
@@ -6796,10 +6775,10 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D54">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6808,16 +6787,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H54">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -6829,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -6838,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -6856,22 +6835,22 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -6883,7 +6862,7 @@
         <v>87000000</v>
       </c>
       <c r="AF54">
-        <v>3.448275862068966E-08</v>
+        <v>2.298850574712644E-08</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -6906,10 +6885,10 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D55">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6918,16 +6897,16 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -6948,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -6966,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X55">
         <v>2</v>
@@ -6978,10 +6957,10 @@
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -7016,10 +6995,10 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D56">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7028,16 +7007,16 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H56">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -7058,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -7076,22 +7055,22 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z56">
         <v>1</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -7103,7 +7082,7 @@
         <v>87000000</v>
       </c>
       <c r="AF56">
-        <v>2.298850574712644E-08</v>
+        <v>1.149425287356322E-08</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -7126,10 +7105,10 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D57">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7138,16 +7117,16 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H57">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -7186,22 +7165,22 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z57">
         <v>1</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -7213,7 +7192,7 @@
         <v>87000000</v>
       </c>
       <c r="AF57">
-        <v>2.298850574712644E-08</v>
+        <v>1.149425287356322E-08</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -7236,10 +7215,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D58">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -7248,16 +7227,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H58">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -7296,22 +7275,22 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -7323,7 +7302,7 @@
         <v>87000000</v>
       </c>
       <c r="AF58">
-        <v>2.298850574712644E-08</v>
+        <v>1.149425287356322E-08</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -7346,10 +7325,10 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D59">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7358,16 +7337,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H59">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -7406,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -7433,7 +7412,7 @@
         <v>87000000</v>
       </c>
       <c r="AF59">
-        <v>1.149425287356322E-08</v>
+        <v>0</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -7456,10 +7435,10 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D60">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7468,16 +7447,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H60">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -7516,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -7543,7 +7522,7 @@
         <v>87000000</v>
       </c>
       <c r="AF60">
-        <v>1.149425287356322E-08</v>
+        <v>0</v>
       </c>
       <c r="AG60">
         <v>0</v>
@@ -7566,10 +7545,10 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D61">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -7578,16 +7557,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H61">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -7626,13 +7605,13 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -7653,7 +7632,7 @@
         <v>87000000</v>
       </c>
       <c r="AF61">
-        <v>1.149425287356322E-08</v>
+        <v>0</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -7676,10 +7655,10 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D62">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -7688,16 +7667,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H62">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -7736,13 +7715,13 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -7763,7 +7742,7 @@
         <v>87000000</v>
       </c>
       <c r="AF62">
-        <v>1.149425287356322E-08</v>
+        <v>0</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -7786,10 +7765,10 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D63">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -7798,16 +7777,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H63">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -7828,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -7846,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X63">
         <v>0</v>
@@ -7896,10 +7875,10 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D64">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -7908,16 +7887,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H64">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -7956,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X64">
         <v>0</v>
@@ -8006,10 +7985,10 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D65">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -8018,16 +7997,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H65">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -8066,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X65">
         <v>0</v>
@@ -8116,10 +8095,10 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D66">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -8128,16 +8107,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H66">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -8176,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -8226,10 +8205,10 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D67">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -8238,16 +8217,16 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H67">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -8286,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -8336,10 +8315,10 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D68">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -8348,16 +8327,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H68">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -8396,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X68">
         <v>0</v>
@@ -8446,10 +8425,10 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D69">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -8458,16 +8437,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H69">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -8506,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -8556,10 +8535,10 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D70">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -8568,16 +8547,16 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H70">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -8616,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X70">
         <v>0</v>
@@ -8666,10 +8645,10 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D71">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -8678,16 +8657,16 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H71">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -8726,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X71">
         <v>0</v>
@@ -8776,10 +8755,10 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D72">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -8788,16 +8767,16 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H72">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -8836,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X72">
         <v>0</v>
@@ -8886,10 +8865,10 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D73">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -8898,16 +8877,16 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H73">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -8946,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X73">
         <v>0</v>
@@ -8996,10 +8975,10 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D74">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -9008,16 +8987,16 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H74">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -9056,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X74">
         <v>0</v>
@@ -9106,10 +9085,10 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D75">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -9118,16 +9097,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H75">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -9166,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -9216,10 +9195,10 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D76">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -9228,16 +9207,16 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H76">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -9276,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -9326,10 +9305,10 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D77">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -9338,16 +9317,16 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H77">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -9386,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -9436,10 +9415,10 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D78">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -9448,16 +9427,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H78">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -9496,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X78">
         <v>0</v>
@@ -9546,10 +9525,10 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D79">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -9558,16 +9537,16 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H79">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -9606,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X79">
         <v>0</v>
@@ -9656,10 +9635,10 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D80">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -9668,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H80">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -9716,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X80">
         <v>0</v>
@@ -9766,10 +9745,10 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D81">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -9778,16 +9757,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H81">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -9826,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X81">
         <v>0</v>
@@ -9876,10 +9855,10 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D82">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -9888,16 +9867,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H82">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -9936,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="W82">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X82">
         <v>0</v>
@@ -9986,10 +9965,10 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D83">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -9998,16 +9977,16 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H83">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -10046,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X83">
         <v>0</v>
@@ -10096,10 +10075,10 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D84">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -10108,16 +10087,16 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H84">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -10156,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X84">
         <v>0</v>
@@ -10206,10 +10185,10 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D85">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -10218,16 +10197,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H85">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -10266,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="W85">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X85">
         <v>0</v>
@@ -10316,10 +10295,10 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D86">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -10328,16 +10307,16 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H86">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -10376,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X86">
         <v>0</v>
@@ -10426,10 +10405,10 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D87">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -10438,16 +10417,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H87">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -10486,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -10536,10 +10515,10 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D88">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -10548,16 +10527,16 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H88">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -10596,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="W88">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X88">
         <v>0</v>
@@ -10646,10 +10625,10 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D89">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -10658,16 +10637,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H89">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -10706,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X89">
         <v>0</v>
@@ -10756,10 +10735,10 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D90">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -10768,16 +10747,16 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H90">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -10816,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="W90">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X90">
         <v>0</v>
@@ -10866,10 +10845,10 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D91">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -10878,16 +10857,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H91">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -10926,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="W91">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X91">
         <v>0</v>
@@ -10976,10 +10955,10 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D92">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -10988,16 +10967,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H92">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -11036,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X92">
         <v>0</v>
@@ -11086,10 +11065,10 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D93">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -11098,16 +11077,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H93">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -11146,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X93">
         <v>0</v>
@@ -11196,10 +11175,10 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D94">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -11208,16 +11187,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H94">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -11256,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X94">
         <v>0</v>
@@ -11306,10 +11285,10 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D95">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -11318,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H95">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -11366,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X95">
         <v>0</v>
@@ -11416,10 +11395,10 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D96">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -11428,16 +11407,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H96">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -11476,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="W96">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X96">
         <v>0</v>
@@ -11526,10 +11505,10 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D97">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -11538,16 +11517,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H97">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -11586,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X97">
         <v>0</v>
@@ -11636,10 +11615,10 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D98">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -11648,16 +11627,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H98">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -11696,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X98">
         <v>0</v>
@@ -11746,10 +11725,10 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D99">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -11758,16 +11737,16 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H99">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -11806,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="W99">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X99">
         <v>0</v>
@@ -11856,10 +11835,10 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D100">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -11868,16 +11847,16 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H100">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -11916,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="W100">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X100">
         <v>0</v>
@@ -11966,10 +11945,10 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D101">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -11978,16 +11957,16 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H101">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -12026,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="W101">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X101">
         <v>0</v>
@@ -12076,10 +12055,10 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D102">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -12088,16 +12067,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H102">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -12136,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="W102">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X102">
         <v>0</v>
@@ -12186,10 +12165,10 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D103">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -12198,16 +12177,16 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H103">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -12246,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="W103">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X103">
         <v>0</v>
@@ -12296,10 +12275,10 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D104">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -12308,16 +12287,16 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H104">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -12356,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="W104">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X104">
         <v>0</v>
@@ -12406,10 +12385,10 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D105">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -12418,16 +12397,16 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H105">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -12466,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="W105">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X105">
         <v>0</v>
@@ -12516,10 +12495,10 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D106">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -12528,16 +12507,16 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H106">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -12576,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="W106">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X106">
         <v>0</v>
@@ -12626,10 +12605,10 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D107">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -12638,16 +12617,16 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H107">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -12686,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="W107">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X107">
         <v>0</v>
@@ -12736,10 +12715,10 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D108">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -12748,16 +12727,16 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H108">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -12796,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X108">
         <v>0</v>
@@ -12846,10 +12825,10 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D109">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -12858,16 +12837,16 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H109">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -12906,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="W109">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X109">
         <v>0</v>
@@ -12956,10 +12935,10 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D110">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -12968,16 +12947,16 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H110">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -13016,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X110">
         <v>0</v>
@@ -13066,10 +13045,10 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D111">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -13078,16 +13057,16 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H111">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -13126,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X111">
         <v>0</v>
@@ -13176,10 +13155,10 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D112">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -13188,16 +13167,16 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H112">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -13236,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X112">
         <v>0</v>
@@ -13286,10 +13265,10 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D113">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -13298,16 +13277,16 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H113">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -13346,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X113">
         <v>0</v>
@@ -13396,10 +13375,10 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D114">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -13408,16 +13387,16 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H114">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -13456,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X114">
         <v>0</v>
@@ -13506,10 +13485,10 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D115">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -13518,16 +13497,16 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H115">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -13566,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X115">
         <v>0</v>
@@ -13616,10 +13595,10 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D116">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -13628,16 +13607,16 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H116">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -13676,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="W116">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X116">
         <v>0</v>
@@ -13726,10 +13705,10 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D117">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -13738,16 +13717,16 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H117">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -13786,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="W117">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X117">
         <v>0</v>
@@ -13836,10 +13815,10 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D118">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -13848,16 +13827,16 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H118">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -13896,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -13946,10 +13925,10 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D119">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -13958,16 +13937,16 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H119">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -14006,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="W119">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X119">
         <v>0</v>
@@ -14056,10 +14035,10 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D120">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -14068,16 +14047,16 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H120">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -14116,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="W120">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X120">
         <v>0</v>
@@ -14166,10 +14145,10 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D121">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -14178,16 +14157,16 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H121">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -14226,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="W121">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X121">
         <v>0</v>
@@ -14276,10 +14255,10 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D122">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -14288,16 +14267,16 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H122">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -14336,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="W122">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X122">
         <v>0</v>
@@ -14386,10 +14365,10 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D123">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -14398,16 +14377,16 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H123">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -14446,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="W123">
-        <v>86999888</v>
+        <v>86999884</v>
       </c>
       <c r="X123">
         <v>0</v>
@@ -14650,7 +14629,7 @@
         <v>56</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
